--- a/mini_project_2/student_performance_analysis/student_analysis_results.xlsx
+++ b/mini_project_2/student_performance_analysis/student_analysis_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,40 +490,60 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Mini Test 1_Scaled</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mini Test 2_Scaled</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Live Test_Scaled</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Assignment_Scaled</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Total Marks</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage Marks</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Attendance Percentage</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Weighted Percentage</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Score Consistency</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Attendance Consistency</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Test Improvement</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total Marks</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Percentage Marks</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Attendance Percentage</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Weighted Percentage</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Performance Category</t>
         </is>
@@ -563,27 +583,39 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N2" t="n">
+        <v>60</v>
+      </c>
+      <c r="O2" t="n">
+        <v>34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>20</v>
+      </c>
+      <c r="R2" t="n">
+        <v>42</v>
+      </c>
+      <c r="S2" t="n">
         <v>3.872983346207417</v>
       </c>
-      <c r="L2" t="n">
+      <c r="T2" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M2" t="n">
+      <c r="U2" t="n">
         <v>6</v>
       </c>
-      <c r="N2" t="n">
-        <v>34</v>
-      </c>
-      <c r="O2" t="n">
-        <v>17</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -623,29 +655,41 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>20</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>40</v>
+      </c>
+      <c r="P3" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>60</v>
+      </c>
+      <c r="R3" t="n">
+        <v>64</v>
+      </c>
+      <c r="S3" t="n">
         <v>4.546060565661952</v>
       </c>
-      <c r="L3" t="n">
+      <c r="T3" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M3" t="n">
+      <c r="U3" t="n">
         <v>6</v>
       </c>
-      <c r="N3" t="n">
-        <v>40</v>
-      </c>
-      <c r="O3" t="n">
-        <v>20</v>
-      </c>
-      <c r="P3" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -683,29 +727,41 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N4" t="n">
+        <v>60</v>
+      </c>
+      <c r="O4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>100</v>
+      </c>
+      <c r="R4" t="n">
+        <v>80</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.309401076758503</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20</v>
-      </c>
-      <c r="P4" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>46.39999999999999</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -743,29 +799,41 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>80</v>
+      </c>
+      <c r="O5" t="n">
+        <v>36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>40</v>
+      </c>
+      <c r="R5" t="n">
+        <v>52</v>
+      </c>
+      <c r="S5" t="n">
         <v>6.164414002968976</v>
       </c>
-      <c r="L5" t="n">
+      <c r="T5" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M5" t="n">
+      <c r="U5" t="n">
         <v>8</v>
       </c>
-      <c r="N5" t="n">
-        <v>36</v>
-      </c>
-      <c r="O5" t="n">
-        <v>18</v>
-      </c>
-      <c r="P5" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -803,27 +871,39 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>40</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>60</v>
+      </c>
+      <c r="O6" t="n">
+        <v>24</v>
+      </c>
+      <c r="P6" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>60</v>
+      </c>
+      <c r="R6" t="n">
+        <v>48</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.96655480858378</v>
       </c>
-      <c r="L6" t="n">
+      <c r="T6" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M6" t="n">
+      <c r="U6" t="n">
         <v>-7</v>
       </c>
-      <c r="N6" t="n">
-        <v>24</v>
-      </c>
-      <c r="O6" t="n">
-        <v>12</v>
-      </c>
-      <c r="P6" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>27.90000000000001</v>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -863,29 +943,41 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
+        <v>25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20</v>
+      </c>
+      <c r="N7" t="n">
+        <v>85</v>
+      </c>
+      <c r="O7" t="n">
+        <v>35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>40</v>
+      </c>
+      <c r="R7" t="n">
+        <v>51</v>
+      </c>
+      <c r="S7" t="n">
         <v>5.678908345800274</v>
       </c>
-      <c r="L7" t="n">
+      <c r="T7" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>35</v>
-      </c>
-      <c r="O7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>22</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -923,27 +1015,39 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>70</v>
+      </c>
+      <c r="O8" t="n">
+        <v>27</v>
+      </c>
+      <c r="P8" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>40</v>
+      </c>
+      <c r="R8" t="n">
+        <v>43</v>
+      </c>
+      <c r="S8" t="n">
         <v>4.924428900898052</v>
       </c>
-      <c r="L8" t="n">
+      <c r="T8" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M8" t="n">
+      <c r="U8" t="n">
         <v>2</v>
       </c>
-      <c r="N8" t="n">
-        <v>27</v>
-      </c>
-      <c r="O8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -983,29 +1087,41 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L9" t="n">
+        <v>45</v>
+      </c>
+      <c r="M9" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>100</v>
+      </c>
+      <c r="O9" t="n">
+        <v>48</v>
+      </c>
+      <c r="P9" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>20</v>
+      </c>
+      <c r="R9" t="n">
+        <v>56</v>
+      </c>
+      <c r="S9" t="n">
         <v>5.477225575051661</v>
       </c>
-      <c r="L9" t="n">
+      <c r="T9" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>48</v>
-      </c>
-      <c r="O9" t="n">
-        <v>24</v>
-      </c>
-      <c r="P9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1043,29 +1159,41 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
+        <v>45</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" t="n">
+        <v>30</v>
+      </c>
+      <c r="N10" t="n">
+        <v>70</v>
+      </c>
+      <c r="O10" t="n">
+        <v>37</v>
+      </c>
+      <c r="P10" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>40</v>
+      </c>
+      <c r="R10" t="n">
+        <v>53</v>
+      </c>
+      <c r="S10" t="n">
         <v>5.251983752196243</v>
       </c>
-      <c r="L10" t="n">
+      <c r="T10" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M10" t="n">
+      <c r="U10" t="n">
         <v>-7</v>
       </c>
-      <c r="N10" t="n">
-        <v>37</v>
-      </c>
-      <c r="O10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1103,29 +1231,41 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" t="n">
+        <v>45</v>
+      </c>
+      <c r="M11" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>90</v>
+      </c>
+      <c r="O11" t="n">
+        <v>39</v>
+      </c>
+      <c r="P11" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>60</v>
+      </c>
+      <c r="R11" t="n">
+        <v>63</v>
+      </c>
+      <c r="S11" t="n">
         <v>6.18465843842649</v>
       </c>
-      <c r="L11" t="n">
+      <c r="T11" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M11" t="n">
+      <c r="U11" t="n">
         <v>6</v>
       </c>
-      <c r="N11" t="n">
-        <v>39</v>
-      </c>
-      <c r="O11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1163,29 +1303,41 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>45</v>
+      </c>
+      <c r="M12" t="n">
+        <v>25</v>
+      </c>
+      <c r="N12" t="n">
+        <v>70</v>
+      </c>
+      <c r="O12" t="n">
+        <v>34</v>
+      </c>
+      <c r="P12" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>40</v>
+      </c>
+      <c r="R12" t="n">
+        <v>50</v>
+      </c>
+      <c r="S12" t="n">
         <v>5.446711546122731</v>
       </c>
-      <c r="L12" t="n">
+      <c r="T12" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M12" t="n">
+      <c r="U12" t="n">
         <v>8</v>
       </c>
-      <c r="N12" t="n">
-        <v>34</v>
-      </c>
-      <c r="O12" t="n">
-        <v>17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1223,29 +1375,41 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
+        <v>30</v>
+      </c>
+      <c r="L13" t="n">
+        <v>50</v>
+      </c>
+      <c r="M13" t="n">
+        <v>25</v>
+      </c>
+      <c r="N13" t="n">
+        <v>75</v>
+      </c>
+      <c r="O13" t="n">
+        <v>41</v>
+      </c>
+      <c r="P13" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>60</v>
+      </c>
+      <c r="R13" t="n">
+        <v>65</v>
+      </c>
+      <c r="S13" t="n">
         <v>3.685557397915997</v>
       </c>
-      <c r="L13" t="n">
+      <c r="T13" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M13" t="n">
+      <c r="U13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="n">
-        <v>41</v>
-      </c>
-      <c r="O13" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1283,29 +1447,41 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>35</v>
+      </c>
+      <c r="L14" t="n">
+        <v>45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>30</v>
+      </c>
+      <c r="N14" t="n">
+        <v>100</v>
+      </c>
+      <c r="O14" t="n">
+        <v>48</v>
+      </c>
+      <c r="P14" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>40</v>
+      </c>
+      <c r="R14" t="n">
+        <v>64</v>
+      </c>
+      <c r="S14" t="n">
         <v>5.715476066494082</v>
       </c>
-      <c r="L14" t="n">
+      <c r="T14" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M14" t="n">
+      <c r="U14" t="n">
         <v>2</v>
       </c>
-      <c r="N14" t="n">
-        <v>48</v>
-      </c>
-      <c r="O14" t="n">
-        <v>24</v>
-      </c>
-      <c r="P14" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>24</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1343,29 +1519,41 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
+        <v>45</v>
+      </c>
+      <c r="L15" t="n">
+        <v>25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>35</v>
+      </c>
+      <c r="N15" t="n">
+        <v>80</v>
+      </c>
+      <c r="O15" t="n">
+        <v>44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>40</v>
+      </c>
+      <c r="R15" t="n">
+        <v>60</v>
+      </c>
+      <c r="S15" t="n">
         <v>4.96655480858378</v>
       </c>
-      <c r="L15" t="n">
+      <c r="T15" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M15" t="n">
+      <c r="U15" t="n">
         <v>-4</v>
       </c>
-      <c r="N15" t="n">
-        <v>44</v>
-      </c>
-      <c r="O15" t="n">
-        <v>22</v>
-      </c>
-      <c r="P15" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1403,27 +1591,39 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>50</v>
+      </c>
+      <c r="L16" t="n">
+        <v>25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>35</v>
+      </c>
+      <c r="N16" t="n">
+        <v>85</v>
+      </c>
+      <c r="O16" t="n">
+        <v>46</v>
+      </c>
+      <c r="P16" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>46</v>
+      </c>
+      <c r="S16" t="n">
         <v>5.196152422706632</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>-5</v>
       </c>
-      <c r="N16" t="n">
-        <v>46</v>
-      </c>
-      <c r="O16" t="n">
-        <v>23</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>7.700000000000001</v>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -1463,29 +1663,41 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>50</v>
+      </c>
+      <c r="L17" t="n">
+        <v>45</v>
+      </c>
+      <c r="M17" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>65</v>
+      </c>
+      <c r="O17" t="n">
+        <v>47</v>
+      </c>
+      <c r="P17" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>60</v>
+      </c>
+      <c r="R17" t="n">
+        <v>71</v>
+      </c>
+      <c r="S17" t="n">
         <v>2.753785273643051</v>
       </c>
-      <c r="L17" t="n">
+      <c r="T17" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M17" t="n">
+      <c r="U17" t="n">
         <v>-1</v>
       </c>
-      <c r="N17" t="n">
-        <v>47</v>
-      </c>
-      <c r="O17" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -1523,29 +1735,41 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>50</v>
+      </c>
+      <c r="M18" t="n">
+        <v>30</v>
+      </c>
+      <c r="N18" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="O18" t="n">
+        <v>34</v>
+      </c>
+      <c r="P18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>80</v>
+      </c>
+      <c r="R18" t="n">
+        <v>66</v>
+      </c>
+      <c r="S18" t="n">
         <v>5.066228051190222</v>
       </c>
-      <c r="L18" t="n">
+      <c r="T18" t="n">
         <v>0.4472135954999579</v>
       </c>
-      <c r="M18" t="n">
+      <c r="U18" t="n">
         <v>9</v>
       </c>
-      <c r="N18" t="n">
-        <v>34</v>
-      </c>
-      <c r="O18" t="n">
-        <v>17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1583,27 +1807,39 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" t="n">
+        <v>50</v>
+      </c>
+      <c r="M19" t="n">
+        <v>30</v>
+      </c>
+      <c r="N19" t="n">
+        <v>25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>40</v>
+      </c>
+      <c r="R19" t="n">
+        <v>45</v>
+      </c>
+      <c r="S19" t="n">
         <v>4.573474244670748</v>
       </c>
-      <c r="L19" t="n">
+      <c r="T19" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M19" t="n">
+      <c r="U19" t="n">
         <v>8</v>
       </c>
-      <c r="N19" t="n">
-        <v>29</v>
-      </c>
-      <c r="O19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="R19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -1643,29 +1879,41 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>30</v>
+      </c>
+      <c r="L20" t="n">
+        <v>40</v>
+      </c>
+      <c r="M20" t="n">
+        <v>30</v>
+      </c>
+      <c r="N20" t="n">
+        <v>60</v>
+      </c>
+      <c r="O20" t="n">
+        <v>38</v>
+      </c>
+      <c r="P20" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>60</v>
+      </c>
+      <c r="R20" t="n">
+        <v>62</v>
+      </c>
+      <c r="S20" t="n">
         <v>3</v>
       </c>
-      <c r="L20" t="n">
+      <c r="T20" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M20" t="n">
+      <c r="U20" t="n">
         <v>2</v>
       </c>
-      <c r="N20" t="n">
-        <v>38</v>
-      </c>
-      <c r="O20" t="n">
-        <v>19</v>
-      </c>
-      <c r="P20" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1703,29 +1951,41 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>80</v>
+      </c>
+      <c r="R21" t="n">
+        <v>65</v>
+      </c>
+      <c r="S21" t="n">
         <v>7.804912982645397</v>
       </c>
-      <c r="L21" t="n">
+      <c r="T21" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>33</v>
-      </c>
-      <c r="O21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1763,29 +2023,41 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>30</v>
+      </c>
+      <c r="L22" t="n">
+        <v>45</v>
+      </c>
+      <c r="M22" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>60</v>
+      </c>
+      <c r="O22" t="n">
+        <v>38</v>
+      </c>
+      <c r="P22" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>40</v>
+      </c>
+      <c r="R22" t="n">
+        <v>54</v>
+      </c>
+      <c r="S22" t="n">
         <v>2.645751311064591</v>
       </c>
-      <c r="L22" t="n">
+      <c r="T22" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M22" t="n">
+      <c r="U22" t="n">
         <v>3</v>
       </c>
-      <c r="N22" t="n">
-        <v>38</v>
-      </c>
-      <c r="O22" t="n">
-        <v>19</v>
-      </c>
-      <c r="P22" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1823,29 +2095,41 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" t="n">
+        <v>40</v>
+      </c>
+      <c r="M23" t="n">
+        <v>30</v>
+      </c>
+      <c r="N23" t="n">
+        <v>50</v>
+      </c>
+      <c r="O23" t="n">
+        <v>32</v>
+      </c>
+      <c r="P23" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>60</v>
+      </c>
+      <c r="R23" t="n">
+        <v>56</v>
+      </c>
+      <c r="S23" t="n">
         <v>4.320493798938574</v>
       </c>
-      <c r="L23" t="n">
+      <c r="T23" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M23" t="n">
+      <c r="U23" t="n">
         <v>6</v>
       </c>
-      <c r="N23" t="n">
-        <v>32</v>
-      </c>
-      <c r="O23" t="n">
-        <v>16</v>
-      </c>
-      <c r="P23" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -1883,27 +2167,39 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>15</v>
+      </c>
+      <c r="M24" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>75</v>
+      </c>
+      <c r="O24" t="n">
+        <v>33</v>
+      </c>
+      <c r="P24" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>40</v>
+      </c>
+      <c r="R24" t="n">
+        <v>49</v>
+      </c>
+      <c r="S24" t="n">
         <v>7.88986691902975</v>
       </c>
-      <c r="L24" t="n">
+      <c r="T24" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M24" t="n">
+      <c r="U24" t="n">
         <v>3</v>
       </c>
-      <c r="N24" t="n">
-        <v>33</v>
-      </c>
-      <c r="O24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P24" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="R24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -1943,29 +2239,41 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>50</v>
+      </c>
+      <c r="M25" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>80</v>
+      </c>
+      <c r="O25" t="n">
+        <v>38</v>
+      </c>
+      <c r="P25" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>40</v>
+      </c>
+      <c r="R25" t="n">
+        <v>54</v>
+      </c>
+      <c r="S25" t="n">
         <v>6.244997998398398</v>
       </c>
-      <c r="L25" t="n">
+      <c r="T25" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M25" t="n">
+      <c r="U25" t="n">
         <v>9</v>
       </c>
-      <c r="N25" t="n">
-        <v>38</v>
-      </c>
-      <c r="O25" t="n">
-        <v>19</v>
-      </c>
-      <c r="P25" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2003,27 +2311,39 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>35</v>
+      </c>
+      <c r="L26" t="n">
+        <v>30</v>
+      </c>
+      <c r="M26" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>95</v>
+      </c>
+      <c r="O26" t="n">
+        <v>45</v>
+      </c>
+      <c r="P26" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>45</v>
+      </c>
+      <c r="S26" t="n">
         <v>6.020797289396148</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>-1</v>
       </c>
-      <c r="N26" t="n">
-        <v>45</v>
-      </c>
-      <c r="O26" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>7.700000000000001</v>
-      </c>
-      <c r="R26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -2063,29 +2383,41 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>45</v>
+      </c>
+      <c r="M27" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>75</v>
+      </c>
+      <c r="O27" t="n">
+        <v>40</v>
+      </c>
+      <c r="P27" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>60</v>
+      </c>
+      <c r="R27" t="n">
+        <v>64</v>
+      </c>
+      <c r="S27" t="n">
         <v>6.6332495807108</v>
       </c>
-      <c r="L27" t="n">
+      <c r="T27" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M27" t="n">
+      <c r="U27" t="n">
         <v>8</v>
       </c>
-      <c r="N27" t="n">
-        <v>40</v>
-      </c>
-      <c r="O27" t="n">
-        <v>20</v>
-      </c>
-      <c r="P27" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>31</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2123,29 +2455,41 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
+        <v>30</v>
+      </c>
+      <c r="L28" t="n">
+        <v>40</v>
+      </c>
+      <c r="M28" t="n">
+        <v>25</v>
+      </c>
+      <c r="N28" t="n">
+        <v>95</v>
+      </c>
+      <c r="O28" t="n">
+        <v>43</v>
+      </c>
+      <c r="P28" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>40</v>
+      </c>
+      <c r="R28" t="n">
+        <v>59</v>
+      </c>
+      <c r="S28" t="n">
         <v>5.737304826019502</v>
       </c>
-      <c r="L28" t="n">
+      <c r="T28" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M28" t="n">
+      <c r="U28" t="n">
         <v>2</v>
       </c>
-      <c r="N28" t="n">
-        <v>43</v>
-      </c>
-      <c r="O28" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="P28" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2183,29 +2527,41 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>25</v>
+      </c>
+      <c r="M29" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>95</v>
+      </c>
+      <c r="O29" t="n">
+        <v>35</v>
+      </c>
+      <c r="P29" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>60</v>
+      </c>
+      <c r="R29" t="n">
+        <v>59</v>
+      </c>
+      <c r="S29" t="n">
         <v>8.180260794538684</v>
       </c>
-      <c r="L29" t="n">
+      <c r="T29" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M29" t="n">
+      <c r="U29" t="n">
         <v>5</v>
       </c>
-      <c r="N29" t="n">
-        <v>35</v>
-      </c>
-      <c r="O29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="P29" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2243,29 +2599,41 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
+        <v>50</v>
+      </c>
+      <c r="L30" t="n">
+        <v>45</v>
+      </c>
+      <c r="M30" t="n">
+        <v>25</v>
+      </c>
+      <c r="N30" t="n">
+        <v>75</v>
+      </c>
+      <c r="O30" t="n">
+        <v>44</v>
+      </c>
+      <c r="P30" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>40</v>
+      </c>
+      <c r="R30" t="n">
+        <v>60</v>
+      </c>
+      <c r="S30" t="n">
         <v>2.70801280154532</v>
       </c>
-      <c r="L30" t="n">
+      <c r="T30" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M30" t="n">
+      <c r="U30" t="n">
         <v>-1</v>
       </c>
-      <c r="N30" t="n">
-        <v>44</v>
-      </c>
-      <c r="O30" t="n">
-        <v>22</v>
-      </c>
-      <c r="P30" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2303,29 +2671,41 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
+        <v>45</v>
+      </c>
+      <c r="L31" t="n">
+        <v>35</v>
+      </c>
+      <c r="M31" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>80</v>
+      </c>
+      <c r="O31" t="n">
+        <v>43</v>
+      </c>
+      <c r="P31" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>80</v>
+      </c>
+      <c r="R31" t="n">
+        <v>75</v>
+      </c>
+      <c r="S31" t="n">
         <v>3.862210075418822</v>
       </c>
-      <c r="L31" t="n">
+      <c r="T31" t="n">
         <v>0.4472135954999579</v>
       </c>
-      <c r="M31" t="n">
+      <c r="U31" t="n">
         <v>-2</v>
       </c>
-      <c r="N31" t="n">
-        <v>43</v>
-      </c>
-      <c r="O31" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="P31" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>39.00000000000001</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -2363,27 +2743,39 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
+        <v>25</v>
+      </c>
+      <c r="L32" t="n">
+        <v>15</v>
+      </c>
+      <c r="M32" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>15</v>
+      </c>
+      <c r="O32" t="n">
+        <v>26</v>
+      </c>
+      <c r="P32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>20</v>
+      </c>
+      <c r="R32" t="n">
+        <v>34</v>
+      </c>
+      <c r="S32" t="n">
         <v>5.744562646538029</v>
       </c>
-      <c r="L32" t="n">
+      <c r="T32" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M32" t="n">
+      <c r="U32" t="n">
         <v>-2</v>
       </c>
-      <c r="N32" t="n">
-        <v>26</v>
-      </c>
-      <c r="O32" t="n">
-        <v>13</v>
-      </c>
-      <c r="P32" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="R32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -2423,29 +2815,41 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>25</v>
+      </c>
+      <c r="L33" t="n">
+        <v>45</v>
+      </c>
+      <c r="M33" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="O33" t="n">
+        <v>40</v>
+      </c>
+      <c r="P33" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>40</v>
+      </c>
+      <c r="R33" t="n">
+        <v>56</v>
+      </c>
+      <c r="S33" t="n">
         <v>4.163331998932265</v>
       </c>
-      <c r="L33" t="n">
+      <c r="T33" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M33" t="n">
+      <c r="U33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="n">
-        <v>40</v>
-      </c>
-      <c r="O33" t="n">
-        <v>20</v>
-      </c>
-      <c r="P33" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2483,29 +2887,41 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
+        <v>50</v>
+      </c>
+      <c r="L34" t="n">
+        <v>40</v>
+      </c>
+      <c r="M34" t="n">
+        <v>30</v>
+      </c>
+      <c r="N34" t="n">
+        <v>75</v>
+      </c>
+      <c r="O34" t="n">
+        <v>45</v>
+      </c>
+      <c r="P34" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>40</v>
+      </c>
+      <c r="R34" t="n">
+        <v>61</v>
+      </c>
+      <c r="S34" t="n">
         <v>2.986078811194819</v>
       </c>
-      <c r="L34" t="n">
+      <c r="T34" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M34" t="n">
+      <c r="U34" t="n">
         <v>-2</v>
       </c>
-      <c r="N34" t="n">
-        <v>45</v>
-      </c>
-      <c r="O34" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="P34" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2543,29 +2959,41 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>15</v>
+      </c>
+      <c r="L35" t="n">
+        <v>45</v>
+      </c>
+      <c r="M35" t="n">
+        <v>25</v>
+      </c>
+      <c r="N35" t="n">
+        <v>85</v>
+      </c>
+      <c r="O35" t="n">
+        <v>39</v>
+      </c>
+      <c r="P35" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>40</v>
+      </c>
+      <c r="R35" t="n">
+        <v>55</v>
+      </c>
+      <c r="S35" t="n">
         <v>5.737304826019502</v>
       </c>
-      <c r="L35" t="n">
+      <c r="T35" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M35" t="n">
+      <c r="U35" t="n">
         <v>6</v>
       </c>
-      <c r="N35" t="n">
-        <v>39</v>
-      </c>
-      <c r="O35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="P35" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2603,27 +3031,39 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>70</v>
+      </c>
+      <c r="O36" t="n">
+        <v>23</v>
+      </c>
+      <c r="P36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>40</v>
+      </c>
+      <c r="R36" t="n">
+        <v>39</v>
+      </c>
+      <c r="S36" t="n">
         <v>6.946221994724902</v>
       </c>
-      <c r="L36" t="n">
+      <c r="T36" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>23</v>
-      </c>
-      <c r="O36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="P36" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="R36" t="inlineStr">
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -2663,29 +3103,41 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
+        <v>50</v>
+      </c>
+      <c r="L37" t="n">
+        <v>45</v>
+      </c>
+      <c r="M37" t="n">
+        <v>35</v>
+      </c>
+      <c r="N37" t="n">
+        <v>75</v>
+      </c>
+      <c r="O37" t="n">
+        <v>48</v>
+      </c>
+      <c r="P37" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>40</v>
+      </c>
+      <c r="R37" t="n">
+        <v>64</v>
+      </c>
+      <c r="S37" t="n">
         <v>2.943920288775949</v>
       </c>
-      <c r="L37" t="n">
+      <c r="T37" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M37" t="n">
+      <c r="U37" t="n">
         <v>-1</v>
       </c>
-      <c r="N37" t="n">
-        <v>48</v>
-      </c>
-      <c r="O37" t="n">
-        <v>24</v>
-      </c>
-      <c r="P37" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2723,29 +3175,41 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
+        <v>45</v>
+      </c>
+      <c r="L38" t="n">
+        <v>50</v>
+      </c>
+      <c r="M38" t="n">
+        <v>30</v>
+      </c>
+      <c r="N38" t="n">
+        <v>80</v>
+      </c>
+      <c r="O38" t="n">
+        <v>47</v>
+      </c>
+      <c r="P38" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>40</v>
+      </c>
+      <c r="R38" t="n">
+        <v>63</v>
+      </c>
+      <c r="S38" t="n">
         <v>3.095695936834452</v>
       </c>
-      <c r="L38" t="n">
+      <c r="T38" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>47</v>
-      </c>
-      <c r="O38" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P38" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2783,27 +3247,39 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
+        <v>25</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>80</v>
+      </c>
+      <c r="O39" t="n">
+        <v>33</v>
+      </c>
+      <c r="P39" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>40</v>
+      </c>
+      <c r="R39" t="n">
+        <v>49</v>
+      </c>
+      <c r="S39" t="n">
         <v>6.601767440112787</v>
       </c>
-      <c r="L39" t="n">
+      <c r="T39" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M39" t="n">
+      <c r="U39" t="n">
         <v>-4</v>
       </c>
-      <c r="N39" t="n">
-        <v>33</v>
-      </c>
-      <c r="O39" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P39" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>22</v>
-      </c>
-      <c r="R39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -2843,29 +3319,41 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>50</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>30</v>
+      </c>
+      <c r="N40" t="n">
+        <v>65</v>
+      </c>
+      <c r="O40" t="n">
+        <v>35</v>
+      </c>
+      <c r="P40" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>60</v>
+      </c>
+      <c r="R40" t="n">
+        <v>59</v>
+      </c>
+      <c r="S40" t="n">
         <v>5.965176722724427</v>
       </c>
-      <c r="L40" t="n">
+      <c r="T40" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M40" t="n">
+      <c r="U40" t="n">
         <v>-10</v>
       </c>
-      <c r="N40" t="n">
-        <v>35</v>
-      </c>
-      <c r="O40" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="P40" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>30</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2903,29 +3391,41 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>40</v>
+      </c>
+      <c r="L41" t="n">
+        <v>40</v>
+      </c>
+      <c r="M41" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>60</v>
+      </c>
+      <c r="O41" t="n">
+        <v>37</v>
+      </c>
+      <c r="P41" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>40</v>
+      </c>
+      <c r="R41" t="n">
+        <v>53</v>
+      </c>
+      <c r="S41" t="n">
         <v>1.892969448600091</v>
       </c>
-      <c r="L41" t="n">
+      <c r="T41" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>37</v>
-      </c>
-      <c r="O41" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P41" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -2963,27 +3463,39 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
+        <v>10</v>
+      </c>
+      <c r="L42" t="n">
+        <v>25</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>60</v>
+      </c>
+      <c r="O42" t="n">
+        <v>22</v>
+      </c>
+      <c r="P42" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>60</v>
+      </c>
+      <c r="R42" t="n">
+        <v>46</v>
+      </c>
+      <c r="S42" t="n">
         <v>4.509249752822894</v>
       </c>
-      <c r="L42" t="n">
+      <c r="T42" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M42" t="n">
+      <c r="U42" t="n">
         <v>3</v>
       </c>
-      <c r="N42" t="n">
-        <v>22</v>
-      </c>
-      <c r="O42" t="n">
-        <v>11</v>
-      </c>
-      <c r="P42" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="R42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -3023,29 +3535,41 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>20</v>
+      </c>
+      <c r="M43" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>60</v>
+      </c>
+      <c r="O43" t="n">
+        <v>30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>60</v>
+      </c>
+      <c r="R43" t="n">
+        <v>54</v>
+      </c>
+      <c r="S43" t="n">
         <v>5.916079783099616</v>
       </c>
-      <c r="L43" t="n">
+      <c r="T43" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M43" t="n">
+      <c r="U43" t="n">
         <v>3</v>
       </c>
-      <c r="N43" t="n">
-        <v>30</v>
-      </c>
-      <c r="O43" t="n">
-        <v>15</v>
-      </c>
-      <c r="P43" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -3083,27 +3607,39 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>20</v>
+      </c>
+      <c r="L44" t="n">
+        <v>35</v>
+      </c>
+      <c r="M44" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>50</v>
+      </c>
+      <c r="O44" t="n">
+        <v>32</v>
+      </c>
+      <c r="P44" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>32</v>
+      </c>
+      <c r="S44" t="n">
         <v>3.16227766016838</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>3</v>
       </c>
-      <c r="N44" t="n">
-        <v>32</v>
-      </c>
-      <c r="O44" t="n">
-        <v>16</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5.300000000000001</v>
-      </c>
-      <c r="R44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -3143,29 +3679,41 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
+        <v>45</v>
+      </c>
+      <c r="L45" t="n">
+        <v>30</v>
+      </c>
+      <c r="M45" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>100</v>
+      </c>
+      <c r="O45" t="n">
+        <v>48</v>
+      </c>
+      <c r="P45" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>60</v>
+      </c>
+      <c r="R45" t="n">
+        <v>72</v>
+      </c>
+      <c r="S45" t="n">
         <v>6.055300708194983</v>
       </c>
-      <c r="L45" t="n">
+      <c r="T45" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M45" t="n">
+      <c r="U45" t="n">
         <v>-3</v>
       </c>
-      <c r="N45" t="n">
-        <v>48</v>
-      </c>
-      <c r="O45" t="n">
-        <v>24</v>
-      </c>
-      <c r="P45" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -3203,27 +3751,39 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
+        <v>40</v>
+      </c>
+      <c r="L46" t="n">
+        <v>35</v>
+      </c>
+      <c r="M46" t="n">
+        <v>35</v>
+      </c>
+      <c r="N46" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="O46" t="n">
+        <v>40</v>
+      </c>
+      <c r="P46" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>20</v>
+      </c>
+      <c r="R46" t="n">
+        <v>48</v>
+      </c>
+      <c r="S46" t="n">
         <v>3.16227766016838</v>
       </c>
-      <c r="L46" t="n">
+      <c r="T46" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M46" t="n">
+      <c r="U46" t="n">
         <v>-1</v>
       </c>
-      <c r="N46" t="n">
-        <v>40</v>
-      </c>
-      <c r="O46" t="n">
-        <v>20</v>
-      </c>
-      <c r="P46" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="R46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -3263,29 +3823,41 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>40</v>
+      </c>
+      <c r="L47" t="n">
+        <v>50</v>
+      </c>
+      <c r="M47" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>60</v>
+      </c>
+      <c r="O47" t="n">
+        <v>43</v>
+      </c>
+      <c r="P47" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>40</v>
+      </c>
+      <c r="R47" t="n">
+        <v>59</v>
+      </c>
+      <c r="S47" t="n">
         <v>2.217355782608345</v>
       </c>
-      <c r="L47" t="n">
+      <c r="T47" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M47" t="n">
+      <c r="U47" t="n">
         <v>2</v>
       </c>
-      <c r="N47" t="n">
-        <v>43</v>
-      </c>
-      <c r="O47" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="P47" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -3323,29 +3895,41 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>45</v>
+      </c>
+      <c r="M48" t="n">
+        <v>20</v>
+      </c>
+      <c r="N48" t="n">
+        <v>75</v>
+      </c>
+      <c r="O48" t="n">
+        <v>33</v>
+      </c>
+      <c r="P48" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>60</v>
+      </c>
+      <c r="R48" t="n">
+        <v>57</v>
+      </c>
+      <c r="S48" t="n">
         <v>5.737304826019502</v>
       </c>
-      <c r="L48" t="n">
+      <c r="T48" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M48" t="n">
+      <c r="U48" t="n">
         <v>8</v>
       </c>
-      <c r="N48" t="n">
-        <v>33</v>
-      </c>
-      <c r="O48" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P48" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -3383,29 +3967,41 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
+        <v>30</v>
+      </c>
+      <c r="L49" t="n">
+        <v>30</v>
+      </c>
+      <c r="M49" t="n">
+        <v>25</v>
+      </c>
+      <c r="N49" t="n">
+        <v>65</v>
+      </c>
+      <c r="O49" t="n">
+        <v>35</v>
+      </c>
+      <c r="P49" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>40</v>
+      </c>
+      <c r="R49" t="n">
+        <v>51</v>
+      </c>
+      <c r="S49" t="n">
         <v>3.403429642777023</v>
       </c>
-      <c r="L49" t="n">
+      <c r="T49" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>35</v>
-      </c>
-      <c r="O49" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="P49" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -3443,29 +4039,41 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
+        <v>15</v>
+      </c>
+      <c r="L50" t="n">
+        <v>30</v>
+      </c>
+      <c r="M50" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N50" t="n">
+        <v>60</v>
+      </c>
+      <c r="O50" t="n">
+        <v>36</v>
+      </c>
+      <c r="P50" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>80</v>
+      </c>
+      <c r="R50" t="n">
+        <v>68</v>
+      </c>
+      <c r="S50" t="n">
         <v>5.477225575051661</v>
       </c>
-      <c r="L50" t="n">
+      <c r="T50" t="n">
         <v>0.4472135954999579</v>
       </c>
-      <c r="M50" t="n">
+      <c r="U50" t="n">
         <v>3</v>
       </c>
-      <c r="N50" t="n">
-        <v>36</v>
-      </c>
-      <c r="O50" t="n">
-        <v>18</v>
-      </c>
-      <c r="P50" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -3503,29 +4111,41 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>45</v>
+      </c>
+      <c r="L51" t="n">
+        <v>50</v>
+      </c>
+      <c r="M51" t="n">
+        <v>35</v>
+      </c>
+      <c r="N51" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="O51" t="n">
+        <v>44</v>
+      </c>
+      <c r="P51" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>20</v>
+      </c>
+      <c r="R51" t="n">
+        <v>52</v>
+      </c>
+      <c r="S51" t="n">
         <v>2.160246899469287</v>
       </c>
-      <c r="L51" t="n">
+      <c r="T51" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="n">
-        <v>44</v>
-      </c>
-      <c r="O51" t="n">
-        <v>22</v>
-      </c>
-      <c r="P51" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -3563,27 +4183,39 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
+        <v>25</v>
+      </c>
+      <c r="L52" t="n">
+        <v>40</v>
+      </c>
+      <c r="M52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>95</v>
+      </c>
+      <c r="O52" t="n">
+        <v>37</v>
+      </c>
+      <c r="P52" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>37</v>
+      </c>
+      <c r="S52" t="n">
         <v>6.652067347825035</v>
       </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
         <v>3</v>
       </c>
-      <c r="N52" t="n">
-        <v>37</v>
-      </c>
-      <c r="O52" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="R52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -3623,27 +4255,39 @@
         <v>1</v>
       </c>
       <c r="K53" t="n">
+        <v>30</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10</v>
+      </c>
+      <c r="M53" t="n">
+        <v>25</v>
+      </c>
+      <c r="N53" t="n">
+        <v>60</v>
+      </c>
+      <c r="O53" t="n">
+        <v>30</v>
+      </c>
+      <c r="P53" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>40</v>
+      </c>
+      <c r="R53" t="n">
+        <v>46</v>
+      </c>
+      <c r="S53" t="n">
         <v>4.43471156521669</v>
       </c>
-      <c r="L53" t="n">
+      <c r="T53" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M53" t="n">
+      <c r="U53" t="n">
         <v>-4</v>
       </c>
-      <c r="N53" t="n">
-        <v>30</v>
-      </c>
-      <c r="O53" t="n">
-        <v>15</v>
-      </c>
-      <c r="P53" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="R53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -3686,24 +4330,36 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>40</v>
+      </c>
+      <c r="R54" t="n">
+        <v>16</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>16</v>
-      </c>
-      <c r="R54" t="inlineStr">
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -3743,29 +4399,41 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
+        <v>35</v>
+      </c>
+      <c r="L55" t="n">
+        <v>40</v>
+      </c>
+      <c r="M55" t="n">
+        <v>30</v>
+      </c>
+      <c r="N55" t="n">
+        <v>80</v>
+      </c>
+      <c r="O55" t="n">
+        <v>43</v>
+      </c>
+      <c r="P55" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>40</v>
+      </c>
+      <c r="R55" t="n">
+        <v>59</v>
+      </c>
+      <c r="S55" t="n">
         <v>4.112987559751022</v>
       </c>
-      <c r="L55" t="n">
+      <c r="T55" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="n">
-        <v>43</v>
-      </c>
-      <c r="O55" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="P55" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -3803,29 +4471,41 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
+        <v>35</v>
+      </c>
+      <c r="L56" t="n">
+        <v>45</v>
+      </c>
+      <c r="M56" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N56" t="n">
+        <v>95</v>
+      </c>
+      <c r="O56" t="n">
+        <v>46</v>
+      </c>
+      <c r="P56" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>80</v>
+      </c>
+      <c r="R56" t="n">
+        <v>78</v>
+      </c>
+      <c r="S56" t="n">
         <v>5.259911279353167</v>
       </c>
-      <c r="L56" t="n">
+      <c r="T56" t="n">
         <v>0.4472135954999579</v>
       </c>
-      <c r="M56" t="n">
+      <c r="U56" t="n">
         <v>2</v>
       </c>
-      <c r="N56" t="n">
-        <v>46</v>
-      </c>
-      <c r="O56" t="n">
-        <v>23</v>
-      </c>
-      <c r="P56" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -3863,27 +4543,39 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
+        <v>30</v>
+      </c>
+      <c r="L57" t="n">
+        <v>45</v>
+      </c>
+      <c r="M57" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>60</v>
+      </c>
+      <c r="O57" t="n">
+        <v>40</v>
+      </c>
+      <c r="P57" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>20</v>
+      </c>
+      <c r="R57" t="n">
+        <v>48</v>
+      </c>
+      <c r="S57" t="n">
         <v>3.16227766016838</v>
       </c>
-      <c r="L57" t="n">
+      <c r="T57" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M57" t="n">
+      <c r="U57" t="n">
         <v>3</v>
       </c>
-      <c r="N57" t="n">
-        <v>40</v>
-      </c>
-      <c r="O57" t="n">
-        <v>20</v>
-      </c>
-      <c r="P57" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="R57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -3923,29 +4615,41 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>15</v>
+      </c>
+      <c r="M58" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N58" t="n">
+        <v>70</v>
+      </c>
+      <c r="O58" t="n">
+        <v>32</v>
+      </c>
+      <c r="P58" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>80</v>
+      </c>
+      <c r="R58" t="n">
+        <v>64</v>
+      </c>
+      <c r="S58" t="n">
         <v>7.615773105863909</v>
       </c>
-      <c r="L58" t="n">
+      <c r="T58" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M58" t="n">
+      <c r="U58" t="n">
         <v>3</v>
       </c>
-      <c r="N58" t="n">
-        <v>32</v>
-      </c>
-      <c r="O58" t="n">
-        <v>16</v>
-      </c>
-      <c r="P58" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>38.09999999999999</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -3983,29 +4687,41 @@
         <v>1</v>
       </c>
       <c r="K59" t="n">
+        <v>40</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N59" t="n">
+        <v>60</v>
+      </c>
+      <c r="O59" t="n">
+        <v>26</v>
+      </c>
+      <c r="P59" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>80</v>
+      </c>
+      <c r="R59" t="n">
+        <v>58</v>
+      </c>
+      <c r="S59" t="n">
         <v>4.654746681256314</v>
       </c>
-      <c r="L59" t="n">
+      <c r="T59" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M59" t="n">
+      <c r="U59" t="n">
         <v>-7</v>
       </c>
-      <c r="N59" t="n">
-        <v>26</v>
-      </c>
-      <c r="O59" t="n">
-        <v>13</v>
-      </c>
-      <c r="P59" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -4043,27 +4759,39 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
+        <v>35</v>
+      </c>
+      <c r="L60" t="n">
+        <v>10</v>
+      </c>
+      <c r="M60" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>70</v>
+      </c>
+      <c r="O60" t="n">
+        <v>38</v>
+      </c>
+      <c r="P60" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>20</v>
+      </c>
+      <c r="R60" t="n">
+        <v>46</v>
+      </c>
+      <c r="S60" t="n">
         <v>6.137317546507322</v>
       </c>
-      <c r="L60" t="n">
+      <c r="T60" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M60" t="n">
+      <c r="U60" t="n">
         <v>-5</v>
       </c>
-      <c r="N60" t="n">
-        <v>38</v>
-      </c>
-      <c r="O60" t="n">
-        <v>19</v>
-      </c>
-      <c r="P60" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="R60" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -4103,29 +4831,41 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
+        <v>50</v>
+      </c>
+      <c r="L61" t="n">
+        <v>45</v>
+      </c>
+      <c r="M61" t="n">
+        <v>35</v>
+      </c>
+      <c r="N61" t="n">
+        <v>95</v>
+      </c>
+      <c r="O61" t="n">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>40</v>
+      </c>
+      <c r="R61" t="n">
+        <v>68</v>
+      </c>
+      <c r="S61" t="n">
         <v>4.546060565661952</v>
       </c>
-      <c r="L61" t="n">
+      <c r="T61" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M61" t="n">
+      <c r="U61" t="n">
         <v>-1</v>
       </c>
-      <c r="N61" t="n">
-        <v>52</v>
-      </c>
-      <c r="O61" t="n">
-        <v>26</v>
-      </c>
-      <c r="P61" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -4163,27 +4903,39 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
+        <v>20</v>
+      </c>
+      <c r="L62" t="n">
+        <v>20</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="O62" t="n">
+        <v>19</v>
+      </c>
+      <c r="P62" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>60</v>
+      </c>
+      <c r="R62" t="n">
+        <v>43</v>
+      </c>
+      <c r="S62" t="n">
         <v>4.573474244670748</v>
       </c>
-      <c r="L62" t="n">
+      <c r="T62" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>19</v>
-      </c>
-      <c r="O62" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="P62" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>27</v>
-      </c>
-      <c r="R62" t="inlineStr">
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -4223,29 +4975,41 @@
         <v>1</v>
       </c>
       <c r="K63" t="n">
+        <v>40</v>
+      </c>
+      <c r="L63" t="n">
+        <v>30</v>
+      </c>
+      <c r="M63" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>75</v>
+      </c>
+      <c r="O63" t="n">
+        <v>42</v>
+      </c>
+      <c r="P63" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>40</v>
+      </c>
+      <c r="R63" t="n">
+        <v>58</v>
+      </c>
+      <c r="S63" t="n">
         <v>4.203173404306164</v>
       </c>
-      <c r="L63" t="n">
+      <c r="T63" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M63" t="n">
+      <c r="U63" t="n">
         <v>-2</v>
       </c>
-      <c r="N63" t="n">
-        <v>42</v>
-      </c>
-      <c r="O63" t="n">
-        <v>21</v>
-      </c>
-      <c r="P63" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>23</v>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -4283,29 +5047,41 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
+        <v>35</v>
+      </c>
+      <c r="L64" t="n">
+        <v>45</v>
+      </c>
+      <c r="M64" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N64" t="n">
+        <v>85</v>
+      </c>
+      <c r="O64" t="n">
+        <v>46</v>
+      </c>
+      <c r="P64" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>40</v>
+      </c>
+      <c r="R64" t="n">
+        <v>62</v>
+      </c>
+      <c r="S64" t="n">
         <v>4.43471156521669</v>
       </c>
-      <c r="L64" t="n">
+      <c r="T64" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M64" t="n">
+      <c r="U64" t="n">
         <v>2</v>
       </c>
-      <c r="N64" t="n">
-        <v>46</v>
-      </c>
-      <c r="O64" t="n">
-        <v>23</v>
-      </c>
-      <c r="P64" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -4343,27 +5119,39 @@
         <v>1</v>
       </c>
       <c r="K65" t="n">
+        <v>50</v>
+      </c>
+      <c r="L65" t="n">
+        <v>25</v>
+      </c>
+      <c r="M65" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>50</v>
+      </c>
+      <c r="O65" t="n">
+        <v>36</v>
+      </c>
+      <c r="P65" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>20</v>
+      </c>
+      <c r="R65" t="n">
+        <v>44</v>
+      </c>
+      <c r="S65" t="n">
         <v>2.70801280154532</v>
       </c>
-      <c r="L65" t="n">
+      <c r="T65" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M65" t="n">
+      <c r="U65" t="n">
         <v>-5</v>
       </c>
-      <c r="N65" t="n">
-        <v>36</v>
-      </c>
-      <c r="O65" t="n">
-        <v>18</v>
-      </c>
-      <c r="P65" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="R65" t="inlineStr">
+      <c r="V65" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -4403,29 +5191,41 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
+        <v>10</v>
+      </c>
+      <c r="L66" t="n">
+        <v>35</v>
+      </c>
+      <c r="M66" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>15</v>
+      </c>
+      <c r="O66" t="n">
+        <v>25</v>
+      </c>
+      <c r="P66" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>100</v>
+      </c>
+      <c r="R66" t="n">
+        <v>65</v>
+      </c>
+      <c r="S66" t="n">
         <v>4.99165971062398</v>
       </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
         <v>5</v>
       </c>
-      <c r="N66" t="n">
-        <v>25</v>
-      </c>
-      <c r="O66" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="P66" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>44.10000000000001</v>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -4463,27 +5263,39 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N67" t="n">
+        <v>85</v>
+      </c>
+      <c r="O67" t="n">
+        <v>22</v>
+      </c>
+      <c r="P67" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>40</v>
+      </c>
+      <c r="R67" t="n">
+        <v>38</v>
+      </c>
+      <c r="S67" t="n">
         <v>8.020806277010642</v>
       </c>
-      <c r="L67" t="n">
+      <c r="T67" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>22</v>
-      </c>
-      <c r="O67" t="n">
-        <v>11</v>
-      </c>
-      <c r="P67" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="R67" t="inlineStr">
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -4523,29 +5335,41 @@
         <v>1</v>
       </c>
       <c r="K68" t="n">
+        <v>50</v>
+      </c>
+      <c r="L68" t="n">
+        <v>50</v>
+      </c>
+      <c r="M68" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>100</v>
+      </c>
+      <c r="O68" t="n">
+        <v>55</v>
+      </c>
+      <c r="P68" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>40</v>
+      </c>
+      <c r="R68" t="n">
+        <v>71</v>
+      </c>
+      <c r="S68" t="n">
         <v>4.787135538781691</v>
       </c>
-      <c r="L68" t="n">
+      <c r="T68" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>55</v>
-      </c>
-      <c r="O68" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="P68" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>25</v>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -4583,27 +5407,39 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
+        <v>25</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="n">
+        <v>50</v>
+      </c>
+      <c r="O69" t="n">
+        <v>18</v>
+      </c>
+      <c r="P69" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>60</v>
+      </c>
+      <c r="R69" t="n">
+        <v>42</v>
+      </c>
+      <c r="S69" t="n">
         <v>4.041451884327381</v>
       </c>
-      <c r="L69" t="n">
+      <c r="T69" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M69" t="n">
+      <c r="U69" t="n">
         <v>-4</v>
       </c>
-      <c r="N69" t="n">
-        <v>18</v>
-      </c>
-      <c r="O69" t="n">
-        <v>9</v>
-      </c>
-      <c r="P69" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>27</v>
-      </c>
-      <c r="R69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -4643,29 +5479,41 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
+        <v>20</v>
+      </c>
+      <c r="L70" t="n">
+        <v>10</v>
+      </c>
+      <c r="M70" t="n">
+        <v>25</v>
+      </c>
+      <c r="N70" t="n">
+        <v>60</v>
+      </c>
+      <c r="O70" t="n">
+        <v>28</v>
+      </c>
+      <c r="P70" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>60</v>
+      </c>
+      <c r="R70" t="n">
+        <v>52</v>
+      </c>
+      <c r="S70" t="n">
         <v>4.760952285695233</v>
       </c>
-      <c r="L70" t="n">
+      <c r="T70" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M70" t="n">
+      <c r="U70" t="n">
         <v>-2</v>
       </c>
-      <c r="N70" t="n">
-        <v>28</v>
-      </c>
-      <c r="O70" t="n">
-        <v>14</v>
-      </c>
-      <c r="P70" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>29</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -4703,29 +5551,41 @@
         <v>1</v>
       </c>
       <c r="K71" t="n">
+        <v>45</v>
+      </c>
+      <c r="L71" t="n">
+        <v>50</v>
+      </c>
+      <c r="M71" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>75</v>
+      </c>
+      <c r="O71" t="n">
+        <v>47</v>
+      </c>
+      <c r="P71" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>40</v>
+      </c>
+      <c r="R71" t="n">
+        <v>63</v>
+      </c>
+      <c r="S71" t="n">
         <v>2.753785273643051</v>
       </c>
-      <c r="L71" t="n">
+      <c r="T71" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="n">
-        <v>47</v>
-      </c>
-      <c r="O71" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P71" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -4763,27 +5623,39 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
+        <v>20</v>
+      </c>
+      <c r="L72" t="n">
+        <v>20</v>
+      </c>
+      <c r="M72" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>60</v>
+      </c>
+      <c r="O72" t="n">
+        <v>29</v>
+      </c>
+      <c r="P72" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>29</v>
+      </c>
+      <c r="S72" t="n">
         <v>3.947573094109004</v>
       </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>29</v>
-      </c>
-      <c r="O72" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>5</v>
-      </c>
-      <c r="R72" t="inlineStr">
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -4823,27 +5695,39 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
+        <v>25</v>
+      </c>
+      <c r="L73" t="n">
+        <v>20</v>
+      </c>
+      <c r="M73" t="n">
+        <v>35</v>
+      </c>
+      <c r="N73" t="n">
+        <v>65</v>
+      </c>
+      <c r="O73" t="n">
+        <v>36</v>
+      </c>
+      <c r="P73" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>36</v>
+      </c>
+      <c r="S73" t="n">
         <v>5.228129047119374</v>
       </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
         <v>-1</v>
       </c>
-      <c r="N73" t="n">
-        <v>36</v>
-      </c>
-      <c r="O73" t="n">
-        <v>18</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>6.300000000000001</v>
-      </c>
-      <c r="R73" t="inlineStr">
+      <c r="V73" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -4883,29 +5767,41 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L74" t="n">
+        <v>50</v>
+      </c>
+      <c r="M74" t="n">
+        <v>20</v>
+      </c>
+      <c r="N74" t="n">
+        <v>95</v>
+      </c>
+      <c r="O74" t="n">
+        <v>39</v>
+      </c>
+      <c r="P74" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>40</v>
+      </c>
+      <c r="R74" t="n">
+        <v>55</v>
+      </c>
+      <c r="S74" t="n">
         <v>7.041543391425869</v>
       </c>
-      <c r="L74" t="n">
+      <c r="T74" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M74" t="n">
+      <c r="U74" t="n">
         <v>8</v>
       </c>
-      <c r="N74" t="n">
-        <v>39</v>
-      </c>
-      <c r="O74" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="P74" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -4943,29 +5839,41 @@
         <v>1</v>
       </c>
       <c r="K75" t="n">
+        <v>35</v>
+      </c>
+      <c r="L75" t="n">
+        <v>40</v>
+      </c>
+      <c r="M75" t="n">
+        <v>30</v>
+      </c>
+      <c r="N75" t="n">
+        <v>75</v>
+      </c>
+      <c r="O75" t="n">
+        <v>42</v>
+      </c>
+      <c r="P75" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>40</v>
+      </c>
+      <c r="R75" t="n">
+        <v>58</v>
+      </c>
+      <c r="S75" t="n">
         <v>3.696845502136472</v>
       </c>
-      <c r="L75" t="n">
+      <c r="T75" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="n">
-        <v>42</v>
-      </c>
-      <c r="O75" t="n">
-        <v>21</v>
-      </c>
-      <c r="P75" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -5003,29 +5911,41 @@
         <v>1</v>
       </c>
       <c r="K76" t="n">
+        <v>25</v>
+      </c>
+      <c r="L76" t="n">
+        <v>45</v>
+      </c>
+      <c r="M76" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N76" t="n">
+        <v>85</v>
+      </c>
+      <c r="O76" t="n">
+        <v>46</v>
+      </c>
+      <c r="P76" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>40</v>
+      </c>
+      <c r="R76" t="n">
+        <v>62</v>
+      </c>
+      <c r="S76" t="n">
         <v>5.507570547286102</v>
       </c>
-      <c r="L76" t="n">
+      <c r="T76" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M76" t="n">
+      <c r="U76" t="n">
         <v>4</v>
       </c>
-      <c r="N76" t="n">
-        <v>46</v>
-      </c>
-      <c r="O76" t="n">
-        <v>23</v>
-      </c>
-      <c r="P76" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -5063,29 +5983,41 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
+        <v>50</v>
+      </c>
+      <c r="L77" t="n">
+        <v>35</v>
+      </c>
+      <c r="M77" t="n">
+        <v>35</v>
+      </c>
+      <c r="N77" t="n">
+        <v>80</v>
+      </c>
+      <c r="O77" t="n">
+        <v>47</v>
+      </c>
+      <c r="P77" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>60</v>
+      </c>
+      <c r="R77" t="n">
+        <v>71</v>
+      </c>
+      <c r="S77" t="n">
         <v>4.031128874149275</v>
       </c>
-      <c r="L77" t="n">
+      <c r="T77" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M77" t="n">
+      <c r="U77" t="n">
         <v>-3</v>
       </c>
-      <c r="N77" t="n">
-        <v>47</v>
-      </c>
-      <c r="O77" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P77" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -5123,29 +6055,41 @@
         <v>1</v>
       </c>
       <c r="K78" t="n">
+        <v>20</v>
+      </c>
+      <c r="L78" t="n">
+        <v>10</v>
+      </c>
+      <c r="M78" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N78" t="n">
+        <v>70</v>
+      </c>
+      <c r="O78" t="n">
+        <v>35</v>
+      </c>
+      <c r="P78" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>40</v>
+      </c>
+      <c r="R78" t="n">
+        <v>51</v>
+      </c>
+      <c r="S78" t="n">
         <v>6.701989754294367</v>
       </c>
-      <c r="L78" t="n">
+      <c r="T78" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M78" t="n">
+      <c r="U78" t="n">
         <v>-2</v>
       </c>
-      <c r="N78" t="n">
-        <v>35</v>
-      </c>
-      <c r="O78" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="P78" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -5183,29 +6127,41 @@
         <v>1</v>
       </c>
       <c r="K79" t="n">
+        <v>45</v>
+      </c>
+      <c r="L79" t="n">
+        <v>35</v>
+      </c>
+      <c r="M79" t="n">
+        <v>20</v>
+      </c>
+      <c r="N79" t="n">
+        <v>75</v>
+      </c>
+      <c r="O79" t="n">
+        <v>39</v>
+      </c>
+      <c r="P79" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>60</v>
+      </c>
+      <c r="R79" t="n">
+        <v>63</v>
+      </c>
+      <c r="S79" t="n">
         <v>3.593976442141304</v>
       </c>
-      <c r="L79" t="n">
+      <c r="T79" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M79" t="n">
+      <c r="U79" t="n">
         <v>-2</v>
       </c>
-      <c r="N79" t="n">
-        <v>39</v>
-      </c>
-      <c r="O79" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="P79" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -5243,29 +6199,41 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
+        <v>25</v>
+      </c>
+      <c r="L80" t="n">
+        <v>30</v>
+      </c>
+      <c r="M80" t="n">
+        <v>35</v>
+      </c>
+      <c r="N80" t="n">
+        <v>65</v>
+      </c>
+      <c r="O80" t="n">
+        <v>38</v>
+      </c>
+      <c r="P80" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>40</v>
+      </c>
+      <c r="R80" t="n">
+        <v>54</v>
+      </c>
+      <c r="S80" t="n">
         <v>4.654746681256314</v>
       </c>
-      <c r="L80" t="n">
+      <c r="T80" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="n">
-        <v>38</v>
-      </c>
-      <c r="O80" t="n">
-        <v>19</v>
-      </c>
-      <c r="P80" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -5303,29 +6271,41 @@
         <v>1</v>
       </c>
       <c r="K81" t="n">
+        <v>45</v>
+      </c>
+      <c r="L81" t="n">
+        <v>45</v>
+      </c>
+      <c r="M81" t="n">
+        <v>30</v>
+      </c>
+      <c r="N81" t="n">
+        <v>50</v>
+      </c>
+      <c r="O81" t="n">
+        <v>40</v>
+      </c>
+      <c r="P81" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>80</v>
+      </c>
+      <c r="R81" t="n">
+        <v>72</v>
+      </c>
+      <c r="S81" t="n">
         <v>1.414213562373095</v>
       </c>
-      <c r="L81" t="n">
+      <c r="T81" t="n">
         <v>0.4472135954999579</v>
       </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>40</v>
-      </c>
-      <c r="O81" t="n">
-        <v>20</v>
-      </c>
-      <c r="P81" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -5363,29 +6343,41 @@
         <v>1</v>
       </c>
       <c r="K82" t="n">
+        <v>50</v>
+      </c>
+      <c r="L82" t="n">
+        <v>20</v>
+      </c>
+      <c r="M82" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N82" t="n">
+        <v>65</v>
+      </c>
+      <c r="O82" t="n">
+        <v>42</v>
+      </c>
+      <c r="P82" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>80</v>
+      </c>
+      <c r="R82" t="n">
+        <v>74</v>
+      </c>
+      <c r="S82" t="n">
         <v>4.795831523312719</v>
       </c>
-      <c r="L82" t="n">
+      <c r="T82" t="n">
         <v>0.4472135954999579</v>
       </c>
-      <c r="M82" t="n">
+      <c r="U82" t="n">
         <v>-6</v>
       </c>
-      <c r="N82" t="n">
-        <v>42</v>
-      </c>
-      <c r="O82" t="n">
-        <v>21</v>
-      </c>
-      <c r="P82" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>39</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -5423,29 +6415,41 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
+        <v>30</v>
+      </c>
+      <c r="L83" t="n">
+        <v>50</v>
+      </c>
+      <c r="M83" t="n">
+        <v>20</v>
+      </c>
+      <c r="N83" t="n">
+        <v>100</v>
+      </c>
+      <c r="O83" t="n">
+        <v>44</v>
+      </c>
+      <c r="P83" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>60</v>
+      </c>
+      <c r="R83" t="n">
+        <v>68</v>
+      </c>
+      <c r="S83" t="n">
         <v>6.21825270205921</v>
       </c>
-      <c r="L83" t="n">
+      <c r="T83" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M83" t="n">
+      <c r="U83" t="n">
         <v>4</v>
       </c>
-      <c r="N83" t="n">
-        <v>44</v>
-      </c>
-      <c r="O83" t="n">
-        <v>22</v>
-      </c>
-      <c r="P83" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -5483,29 +6487,41 @@
         <v>1</v>
       </c>
       <c r="K84" t="n">
+        <v>50</v>
+      </c>
+      <c r="L84" t="n">
+        <v>50</v>
+      </c>
+      <c r="M84" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N84" t="n">
+        <v>100</v>
+      </c>
+      <c r="O84" t="n">
+        <v>55</v>
+      </c>
+      <c r="P84" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>100</v>
+      </c>
+      <c r="R84" t="n">
+        <v>95</v>
+      </c>
+      <c r="S84" t="n">
         <v>4.787135538781691</v>
       </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>55</v>
-      </c>
-      <c r="O84" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="P84" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>49</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Excellent</t>
         </is>
       </c>
     </row>
@@ -5543,29 +6559,41 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
+        <v>40</v>
+      </c>
+      <c r="L85" t="n">
+        <v>50</v>
+      </c>
+      <c r="M85" t="n">
+        <v>25</v>
+      </c>
+      <c r="N85" t="n">
+        <v>70</v>
+      </c>
+      <c r="O85" t="n">
+        <v>42</v>
+      </c>
+      <c r="P85" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>60</v>
+      </c>
+      <c r="R85" t="n">
+        <v>66</v>
+      </c>
+      <c r="S85" t="n">
         <v>2.516611478423583</v>
       </c>
-      <c r="L85" t="n">
+      <c r="T85" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M85" t="n">
+      <c r="U85" t="n">
         <v>2</v>
       </c>
-      <c r="N85" t="n">
-        <v>42</v>
-      </c>
-      <c r="O85" t="n">
-        <v>21</v>
-      </c>
-      <c r="P85" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -5603,29 +6631,41 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
+        <v>50</v>
+      </c>
+      <c r="L86" t="n">
+        <v>35</v>
+      </c>
+      <c r="M86" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N86" t="n">
+        <v>70</v>
+      </c>
+      <c r="O86" t="n">
+        <v>44</v>
+      </c>
+      <c r="P86" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>60</v>
+      </c>
+      <c r="R86" t="n">
+        <v>68</v>
+      </c>
+      <c r="S86" t="n">
         <v>3.16227766016838</v>
       </c>
-      <c r="L86" t="n">
+      <c r="T86" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M86" t="n">
+      <c r="U86" t="n">
         <v>-3</v>
       </c>
-      <c r="N86" t="n">
-        <v>44</v>
-      </c>
-      <c r="O86" t="n">
-        <v>22</v>
-      </c>
-      <c r="P86" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -5663,29 +6703,41 @@
         <v>1</v>
       </c>
       <c r="K87" t="n">
+        <v>50</v>
+      </c>
+      <c r="L87" t="n">
+        <v>10</v>
+      </c>
+      <c r="M87" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>85</v>
+      </c>
+      <c r="O87" t="n">
+        <v>40</v>
+      </c>
+      <c r="P87" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>40</v>
+      </c>
+      <c r="R87" t="n">
+        <v>56</v>
+      </c>
+      <c r="S87" t="n">
         <v>6.164414002968976</v>
       </c>
-      <c r="L87" t="n">
+      <c r="T87" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M87" t="n">
+      <c r="U87" t="n">
         <v>-8</v>
       </c>
-      <c r="N87" t="n">
-        <v>40</v>
-      </c>
-      <c r="O87" t="n">
-        <v>20</v>
-      </c>
-      <c r="P87" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -5723,29 +6775,41 @@
         <v>1</v>
       </c>
       <c r="K88" t="n">
+        <v>35</v>
+      </c>
+      <c r="L88" t="n">
+        <v>50</v>
+      </c>
+      <c r="M88" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N88" t="n">
+        <v>15</v>
+      </c>
+      <c r="O88" t="n">
+        <v>33</v>
+      </c>
+      <c r="P88" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>60</v>
+      </c>
+      <c r="R88" t="n">
+        <v>57</v>
+      </c>
+      <c r="S88" t="n">
         <v>4.272001872658765</v>
       </c>
-      <c r="L88" t="n">
+      <c r="T88" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M88" t="n">
+      <c r="U88" t="n">
         <v>3</v>
       </c>
-      <c r="N88" t="n">
-        <v>33</v>
-      </c>
-      <c r="O88" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P88" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -5783,29 +6847,41 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
+        <v>5</v>
+      </c>
+      <c r="L89" t="n">
+        <v>50</v>
+      </c>
+      <c r="M89" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N89" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="O89" t="n">
+        <v>37</v>
+      </c>
+      <c r="P89" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>40</v>
+      </c>
+      <c r="R89" t="n">
+        <v>53</v>
+      </c>
+      <c r="S89" t="n">
         <v>5.909032633745278</v>
       </c>
-      <c r="L89" t="n">
+      <c r="T89" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M89" t="n">
+      <c r="U89" t="n">
         <v>9</v>
       </c>
-      <c r="N89" t="n">
-        <v>37</v>
-      </c>
-      <c r="O89" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P89" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -5843,27 +6919,39 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
+        <v>40</v>
+      </c>
+      <c r="L90" t="n">
+        <v>5</v>
+      </c>
+      <c r="M90" t="n">
+        <v>30</v>
+      </c>
+      <c r="N90" t="n">
+        <v>100</v>
+      </c>
+      <c r="O90" t="n">
+        <v>41</v>
+      </c>
+      <c r="P90" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>20</v>
+      </c>
+      <c r="R90" t="n">
+        <v>49</v>
+      </c>
+      <c r="S90" t="n">
         <v>7.932002689527196</v>
       </c>
-      <c r="L90" t="n">
+      <c r="T90" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M90" t="n">
+      <c r="U90" t="n">
         <v>-7</v>
       </c>
-      <c r="N90" t="n">
-        <v>41</v>
-      </c>
-      <c r="O90" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="P90" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="R90" t="inlineStr">
+      <c r="V90" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -5903,27 +6991,39 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
+        <v>10</v>
+      </c>
+      <c r="L91" t="n">
+        <v>50</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>65</v>
+      </c>
+      <c r="O91" t="n">
+        <v>25</v>
+      </c>
+      <c r="P91" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>40</v>
+      </c>
+      <c r="R91" t="n">
+        <v>41</v>
+      </c>
+      <c r="S91" t="n">
         <v>6.238322424070967</v>
       </c>
-      <c r="L91" t="n">
+      <c r="T91" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M91" t="n">
+      <c r="U91" t="n">
         <v>8</v>
       </c>
-      <c r="N91" t="n">
-        <v>25</v>
-      </c>
-      <c r="O91" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="P91" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="R91" t="inlineStr">
+      <c r="V91" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -5963,27 +7063,39 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
+        <v>30</v>
+      </c>
+      <c r="L92" t="n">
+        <v>15</v>
+      </c>
+      <c r="M92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N92" t="n">
+        <v>50</v>
+      </c>
+      <c r="O92" t="n">
+        <v>24</v>
+      </c>
+      <c r="P92" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>60</v>
+      </c>
+      <c r="R92" t="n">
+        <v>48</v>
+      </c>
+      <c r="S92" t="n">
         <v>2.943920288775949</v>
       </c>
-      <c r="L92" t="n">
+      <c r="T92" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M92" t="n">
+      <c r="U92" t="n">
         <v>-3</v>
       </c>
-      <c r="N92" t="n">
-        <v>24</v>
-      </c>
-      <c r="O92" t="n">
-        <v>12</v>
-      </c>
-      <c r="P92" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="R92" t="inlineStr">
+      <c r="V92" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -6023,29 +7135,41 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>45</v>
+      </c>
+      <c r="M93" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N93" t="n">
+        <v>90</v>
+      </c>
+      <c r="O93" t="n">
+        <v>40</v>
+      </c>
+      <c r="P93" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>40</v>
+      </c>
+      <c r="R93" t="n">
+        <v>56</v>
+      </c>
+      <c r="S93" t="n">
         <v>7.615773105863909</v>
       </c>
-      <c r="L93" t="n">
+      <c r="T93" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M93" t="n">
+      <c r="U93" t="n">
         <v>9</v>
       </c>
-      <c r="N93" t="n">
-        <v>40</v>
-      </c>
-      <c r="O93" t="n">
-        <v>20</v>
-      </c>
-      <c r="P93" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -6083,27 +7207,39 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
+        <v>30</v>
+      </c>
+      <c r="L94" t="n">
+        <v>30</v>
+      </c>
+      <c r="M94" t="n">
+        <v>20</v>
+      </c>
+      <c r="N94" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="O94" t="n">
+        <v>31</v>
+      </c>
+      <c r="P94" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>40</v>
+      </c>
+      <c r="R94" t="n">
+        <v>47</v>
+      </c>
+      <c r="S94" t="n">
         <v>2.362907813126304</v>
       </c>
-      <c r="L94" t="n">
+      <c r="T94" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
-        <v>31</v>
-      </c>
-      <c r="O94" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="P94" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>21</v>
-      </c>
-      <c r="R94" t="inlineStr">
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -6143,29 +7279,41 @@
         <v>1</v>
       </c>
       <c r="K95" t="n">
+        <v>10</v>
+      </c>
+      <c r="L95" t="n">
+        <v>45</v>
+      </c>
+      <c r="M95" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N95" t="n">
+        <v>65</v>
+      </c>
+      <c r="O95" t="n">
+        <v>35</v>
+      </c>
+      <c r="P95" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>60</v>
+      </c>
+      <c r="R95" t="n">
+        <v>59</v>
+      </c>
+      <c r="S95" t="n">
         <v>4.787135538781691</v>
       </c>
-      <c r="L95" t="n">
+      <c r="T95" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M95" t="n">
+      <c r="U95" t="n">
         <v>7</v>
       </c>
-      <c r="N95" t="n">
-        <v>35</v>
-      </c>
-      <c r="O95" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="P95" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -6203,29 +7351,41 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
+        <v>15</v>
+      </c>
+      <c r="L96" t="n">
+        <v>50</v>
+      </c>
+      <c r="M96" t="n">
+        <v>35</v>
+      </c>
+      <c r="N96" t="n">
+        <v>85</v>
+      </c>
+      <c r="O96" t="n">
+        <v>44</v>
+      </c>
+      <c r="P96" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>20</v>
+      </c>
+      <c r="R96" t="n">
+        <v>52</v>
+      </c>
+      <c r="S96" t="n">
         <v>6.055300708194983</v>
       </c>
-      <c r="L96" t="n">
+      <c r="T96" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M96" t="n">
+      <c r="U96" t="n">
         <v>7</v>
       </c>
-      <c r="N96" t="n">
-        <v>44</v>
-      </c>
-      <c r="O96" t="n">
-        <v>22</v>
-      </c>
-      <c r="P96" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -6263,29 +7423,41 @@
         <v>1</v>
       </c>
       <c r="K97" t="n">
+        <v>40</v>
+      </c>
+      <c r="L97" t="n">
+        <v>45</v>
+      </c>
+      <c r="M97" t="n">
+        <v>30</v>
+      </c>
+      <c r="N97" t="n">
+        <v>95</v>
+      </c>
+      <c r="O97" t="n">
+        <v>48</v>
+      </c>
+      <c r="P97" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>60</v>
+      </c>
+      <c r="R97" t="n">
+        <v>72</v>
+      </c>
+      <c r="S97" t="n">
         <v>4.96655480858378</v>
       </c>
-      <c r="L97" t="n">
+      <c r="T97" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="n">
-        <v>48</v>
-      </c>
-      <c r="O97" t="n">
-        <v>24</v>
-      </c>
-      <c r="P97" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -6323,29 +7495,41 @@
         <v>1</v>
       </c>
       <c r="K98" t="n">
+        <v>35</v>
+      </c>
+      <c r="L98" t="n">
+        <v>25</v>
+      </c>
+      <c r="M98" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N98" t="n">
+        <v>70</v>
+      </c>
+      <c r="O98" t="n">
+        <v>37</v>
+      </c>
+      <c r="P98" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>80</v>
+      </c>
+      <c r="R98" t="n">
+        <v>69</v>
+      </c>
+      <c r="S98" t="n">
         <v>4.031128874149275</v>
       </c>
-      <c r="L98" t="n">
+      <c r="T98" t="n">
         <v>0.4472135954999579</v>
       </c>
-      <c r="M98" t="n">
+      <c r="U98" t="n">
         <v>-2</v>
       </c>
-      <c r="N98" t="n">
-        <v>37</v>
-      </c>
-      <c r="O98" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P98" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -6383,29 +7567,41 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
+        <v>40</v>
+      </c>
+      <c r="L99" t="n">
+        <v>35</v>
+      </c>
+      <c r="M99" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N99" t="n">
+        <v>50</v>
+      </c>
+      <c r="O99" t="n">
+        <v>36</v>
+      </c>
+      <c r="P99" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>40</v>
+      </c>
+      <c r="R99" t="n">
+        <v>52</v>
+      </c>
+      <c r="S99" t="n">
         <v>1.825741858350554</v>
       </c>
-      <c r="L99" t="n">
+      <c r="T99" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M99" t="n">
+      <c r="U99" t="n">
         <v>-1</v>
       </c>
-      <c r="N99" t="n">
-        <v>36</v>
-      </c>
-      <c r="O99" t="n">
-        <v>18</v>
-      </c>
-      <c r="P99" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -6443,29 +7639,41 @@
         <v>1</v>
       </c>
       <c r="K100" t="n">
+        <v>45</v>
+      </c>
+      <c r="L100" t="n">
+        <v>25</v>
+      </c>
+      <c r="M100" t="n">
+        <v>25</v>
+      </c>
+      <c r="N100" t="n">
+        <v>80</v>
+      </c>
+      <c r="O100" t="n">
+        <v>40</v>
+      </c>
+      <c r="P100" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>80</v>
+      </c>
+      <c r="R100" t="n">
+        <v>72</v>
+      </c>
+      <c r="S100" t="n">
         <v>4.546060565661952</v>
       </c>
-      <c r="L100" t="n">
+      <c r="T100" t="n">
         <v>0.4472135954999579</v>
       </c>
-      <c r="M100" t="n">
+      <c r="U100" t="n">
         <v>-4</v>
       </c>
-      <c r="N100" t="n">
-        <v>40</v>
-      </c>
-      <c r="O100" t="n">
-        <v>20</v>
-      </c>
-      <c r="P100" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -6503,29 +7711,41 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
+        <v>40</v>
+      </c>
+      <c r="L101" t="n">
+        <v>35</v>
+      </c>
+      <c r="M101" t="n">
+        <v>30</v>
+      </c>
+      <c r="N101" t="n">
+        <v>85</v>
+      </c>
+      <c r="O101" t="n">
+        <v>44</v>
+      </c>
+      <c r="P101" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>20</v>
+      </c>
+      <c r="R101" t="n">
+        <v>52</v>
+      </c>
+      <c r="S101" t="n">
         <v>4.546060565661952</v>
       </c>
-      <c r="L101" t="n">
+      <c r="T101" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M101" t="n">
+      <c r="U101" t="n">
         <v>-1</v>
       </c>
-      <c r="N101" t="n">
-        <v>44</v>
-      </c>
-      <c r="O101" t="n">
-        <v>22</v>
-      </c>
-      <c r="P101" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -6563,27 +7783,39 @@
         <v>1</v>
       </c>
       <c r="K102" t="n">
+        <v>20</v>
+      </c>
+      <c r="L102" t="n">
+        <v>20</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="n">
+        <v>15</v>
+      </c>
+      <c r="O102" t="n">
+        <v>13</v>
+      </c>
+      <c r="P102" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>40</v>
+      </c>
+      <c r="R102" t="n">
+        <v>29</v>
+      </c>
+      <c r="S102" t="n">
         <v>0.9574271077563381</v>
       </c>
-      <c r="L102" t="n">
+      <c r="T102" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>13</v>
-      </c>
-      <c r="O102" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="P102" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="R102" t="inlineStr">
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -6623,27 +7855,39 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
+        <v>25</v>
+      </c>
+      <c r="L103" t="n">
+        <v>50</v>
+      </c>
+      <c r="M103" t="n">
+        <v>35</v>
+      </c>
+      <c r="N103" t="n">
+        <v>15</v>
+      </c>
+      <c r="O103" t="n">
+        <v>32</v>
+      </c>
+      <c r="P103" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>40</v>
+      </c>
+      <c r="R103" t="n">
+        <v>48</v>
+      </c>
+      <c r="S103" t="n">
         <v>4.96655480858378</v>
       </c>
-      <c r="L103" t="n">
+      <c r="T103" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M103" t="n">
+      <c r="U103" t="n">
         <v>5</v>
       </c>
-      <c r="N103" t="n">
-        <v>32</v>
-      </c>
-      <c r="O103" t="n">
-        <v>16</v>
-      </c>
-      <c r="P103" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="R103" t="inlineStr">
+      <c r="V103" t="inlineStr">
         <is>
           <t>Needs Improvement</t>
         </is>
@@ -6683,29 +7927,41 @@
         <v>1</v>
       </c>
       <c r="K104" t="n">
+        <v>15</v>
+      </c>
+      <c r="L104" t="n">
+        <v>45</v>
+      </c>
+      <c r="M104" t="n">
+        <v>25</v>
+      </c>
+      <c r="N104" t="n">
+        <v>70</v>
+      </c>
+      <c r="O104" t="n">
+        <v>36</v>
+      </c>
+      <c r="P104" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>40</v>
+      </c>
+      <c r="R104" t="n">
+        <v>52</v>
+      </c>
+      <c r="S104" t="n">
         <v>4.546060565661952</v>
       </c>
-      <c r="L104" t="n">
+      <c r="T104" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M104" t="n">
+      <c r="U104" t="n">
         <v>6</v>
       </c>
-      <c r="N104" t="n">
-        <v>36</v>
-      </c>
-      <c r="O104" t="n">
-        <v>18</v>
-      </c>
-      <c r="P104" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>22</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -6743,29 +7999,41 @@
         <v>1</v>
       </c>
       <c r="K105" t="n">
+        <v>20</v>
+      </c>
+      <c r="L105" t="n">
+        <v>25</v>
+      </c>
+      <c r="M105" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N105" t="n">
+        <v>85</v>
+      </c>
+      <c r="O105" t="n">
+        <v>37</v>
+      </c>
+      <c r="P105" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>80</v>
+      </c>
+      <c r="R105" t="n">
+        <v>69</v>
+      </c>
+      <c r="S105" t="n">
         <v>6.020797289396148</v>
       </c>
-      <c r="L105" t="n">
+      <c r="T105" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="n">
-        <v>37</v>
-      </c>
-      <c r="O105" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P105" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -6803,29 +8071,41 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
+        <v>40</v>
+      </c>
+      <c r="L106" t="n">
+        <v>50</v>
+      </c>
+      <c r="M106" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="N106" t="n">
+        <v>65</v>
+      </c>
+      <c r="O106" t="n">
+        <v>46</v>
+      </c>
+      <c r="P106" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>20</v>
+      </c>
+      <c r="R106" t="n">
+        <v>54</v>
+      </c>
+      <c r="S106" t="n">
         <v>3.109126351029605</v>
       </c>
-      <c r="L106" t="n">
+      <c r="T106" t="n">
         <v>0.447213595499958</v>
       </c>
-      <c r="M106" t="n">
+      <c r="U106" t="n">
         <v>2</v>
       </c>
-      <c r="N106" t="n">
-        <v>46</v>
-      </c>
-      <c r="O106" t="n">
-        <v>23</v>
-      </c>
-      <c r="P106" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -6863,29 +8143,41 @@
         <v>1</v>
       </c>
       <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>50</v>
+      </c>
+      <c r="M107" t="n">
+        <v>25</v>
+      </c>
+      <c r="N107" t="n">
+        <v>60</v>
+      </c>
+      <c r="O107" t="n">
+        <v>32</v>
+      </c>
+      <c r="P107" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>60</v>
+      </c>
+      <c r="R107" t="n">
+        <v>56</v>
+      </c>
+      <c r="S107" t="n">
         <v>5.41602560309064</v>
       </c>
-      <c r="L107" t="n">
+      <c r="T107" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M107" t="n">
+      <c r="U107" t="n">
         <v>10</v>
       </c>
-      <c r="N107" t="n">
-        <v>32</v>
-      </c>
-      <c r="O107" t="n">
-        <v>16</v>
-      </c>
-      <c r="P107" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -6923,29 +8215,41 @@
         <v>1</v>
       </c>
       <c r="K108" t="n">
+        <v>50</v>
+      </c>
+      <c r="L108" t="n">
+        <v>50</v>
+      </c>
+      <c r="M108" t="n">
+        <v>35</v>
+      </c>
+      <c r="N108" t="n">
+        <v>90</v>
+      </c>
+      <c r="O108" t="n">
+        <v>52</v>
+      </c>
+      <c r="P108" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>40</v>
+      </c>
+      <c r="R108" t="n">
+        <v>68</v>
+      </c>
+      <c r="S108" t="n">
         <v>3.829708431025352</v>
       </c>
-      <c r="L108" t="n">
+      <c r="T108" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M108" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" t="n">
-        <v>52</v>
-      </c>
-      <c r="O108" t="n">
-        <v>26</v>
-      </c>
-      <c r="P108" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -6983,29 +8287,41 @@
         <v>1</v>
       </c>
       <c r="K109" t="n">
+        <v>40</v>
+      </c>
+      <c r="L109" t="n">
+        <v>45</v>
+      </c>
+      <c r="M109" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="N109" t="n">
+        <v>70</v>
+      </c>
+      <c r="O109" t="n">
+        <v>44</v>
+      </c>
+      <c r="P109" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>40</v>
+      </c>
+      <c r="R109" t="n">
+        <v>60</v>
+      </c>
+      <c r="S109" t="n">
         <v>2.943920288775949</v>
       </c>
-      <c r="L109" t="n">
+      <c r="T109" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="n">
-        <v>44</v>
-      </c>
-      <c r="O109" t="n">
-        <v>22</v>
-      </c>
-      <c r="P109" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -7043,29 +8359,41 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
+        <v>15</v>
+      </c>
+      <c r="L110" t="n">
+        <v>30</v>
+      </c>
+      <c r="M110" t="n">
+        <v>35</v>
+      </c>
+      <c r="N110" t="n">
+        <v>75</v>
+      </c>
+      <c r="O110" t="n">
+        <v>38</v>
+      </c>
+      <c r="P110" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>100</v>
+      </c>
+      <c r="R110" t="n">
+        <v>78</v>
+      </c>
+      <c r="S110" t="n">
         <v>5.916079783099616</v>
       </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="n">
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
         <v>3</v>
       </c>
-      <c r="N110" t="n">
-        <v>38</v>
-      </c>
-      <c r="O110" t="n">
-        <v>19</v>
-      </c>
-      <c r="P110" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -7103,29 +8431,41 @@
         <v>1</v>
       </c>
       <c r="K111" t="n">
+        <v>10</v>
+      </c>
+      <c r="L111" t="n">
+        <v>15</v>
+      </c>
+      <c r="M111" t="n">
+        <v>25</v>
+      </c>
+      <c r="N111" t="n">
+        <v>85</v>
+      </c>
+      <c r="O111" t="n">
+        <v>32</v>
+      </c>
+      <c r="P111" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>60</v>
+      </c>
+      <c r="R111" t="n">
+        <v>56</v>
+      </c>
+      <c r="S111" t="n">
         <v>6.97614984548545</v>
       </c>
-      <c r="L111" t="n">
+      <c r="T111" t="n">
         <v>0.5477225575051662</v>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="n">
-        <v>32</v>
-      </c>
-      <c r="O111" t="n">
-        <v>16</v>
-      </c>
-      <c r="P111" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
@@ -7216,7 +8556,7 @@
         <v>13.88181818181818</v>
       </c>
       <c r="F3" t="n">
-        <v>25.13272727272728</v>
+        <v>56.16363636363636</v>
       </c>
     </row>
     <row r="4">
@@ -7238,7 +8578,7 @@
         <v>4.047270726503398</v>
       </c>
       <c r="F4" t="n">
-        <v>8.883126041746863</v>
+        <v>12.02636802779417</v>
       </c>
     </row>
     <row r="5">
@@ -7260,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -7282,7 +8622,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>21.325</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -7304,7 +8644,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -7326,7 +8666,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>30.425</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -7348,7 +8688,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7362,7 +8702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7390,14 +8730,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>67</v>
+      </c>
+      <c r="C2" t="n">
+        <v>60.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Needs Improvement</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>110</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
+      <c r="B3" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -7446,7 +8825,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>46.39999999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -7459,7 +8838,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>44.10000000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -7472,7 +8851,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -7485,7 +8864,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>46.7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -7498,7 +8877,7 @@
         <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>38.3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -7511,7 +8890,7 @@
         <v>80</v>
       </c>
       <c r="C7" t="n">
-        <v>37.7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -7524,7 +8903,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="n">
-        <v>36.3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -7537,7 +8916,7 @@
         <v>80</v>
       </c>
       <c r="C9" t="n">
-        <v>38.09999999999999</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -7550,7 +8929,7 @@
         <v>80</v>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -7563,7 +8942,7 @@
         <v>80</v>
       </c>
       <c r="C11" t="n">
-        <v>39.6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -7576,7 +8955,7 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>38.3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -7589,7 +8968,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>39.00000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -7602,7 +8981,7 @@
         <v>80</v>
       </c>
       <c r="C14" t="n">
-        <v>38.2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -7615,7 +8994,7 @@
         <v>80</v>
       </c>
       <c r="C15" t="n">
-        <v>38.2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -7628,7 +9007,7 @@
         <v>80</v>
       </c>
       <c r="C16" t="n">
-        <v>38.6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -7641,7 +9020,7 @@
         <v>80</v>
       </c>
       <c r="C17" t="n">
-        <v>38.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -7654,7 +9033,7 @@
         <v>60</v>
       </c>
       <c r="C18" t="n">
-        <v>32.1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -7667,7 +9046,7 @@
         <v>60</v>
       </c>
       <c r="C19" t="n">
-        <v>30.2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -7680,7 +9059,7 @@
         <v>60</v>
       </c>
       <c r="C20" t="n">
-        <v>29.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
@@ -7693,7 +9072,7 @@
         <v>60</v>
       </c>
       <c r="C21" t="n">
-        <v>27.7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -7706,7 +9085,7 @@
         <v>60</v>
       </c>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -7719,7 +9098,7 @@
         <v>60</v>
       </c>
       <c r="C23" t="n">
-        <v>31.2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -7732,7 +9111,7 @@
         <v>60</v>
       </c>
       <c r="C24" t="n">
-        <v>29.9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -7745,7 +9124,7 @@
         <v>60</v>
       </c>
       <c r="C25" t="n">
-        <v>31.9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -7758,7 +9137,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="n">
-        <v>29.9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -7771,7 +9150,7 @@
         <v>60</v>
       </c>
       <c r="C27" t="n">
-        <v>29.4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -7784,7 +9163,7 @@
         <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>31.1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -7797,7 +9176,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>30.6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -7810,7 +9189,7 @@
         <v>60</v>
       </c>
       <c r="C30" t="n">
-        <v>27.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -7823,7 +9202,7 @@
         <v>60</v>
       </c>
       <c r="C31" t="n">
-        <v>28.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -7836,7 +9215,7 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>29.6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33">
@@ -7849,7 +9228,7 @@
         <v>60</v>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -7862,7 +9241,7 @@
         <v>60</v>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
@@ -7875,7 +9254,7 @@
         <v>60</v>
       </c>
       <c r="C35" t="n">
-        <v>29.4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
@@ -7888,7 +9267,7 @@
         <v>60</v>
       </c>
       <c r="C36" t="n">
-        <v>30.2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
@@ -7901,7 +9280,7 @@
         <v>60</v>
       </c>
       <c r="C37" t="n">
-        <v>31.7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
@@ -7914,7 +9293,7 @@
         <v>60</v>
       </c>
       <c r="C38" t="n">
-        <v>27.90000000000001</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
@@ -7927,7 +9306,7 @@
         <v>60</v>
       </c>
       <c r="C39" t="n">
-        <v>30.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -7940,7 +9319,7 @@
         <v>60</v>
       </c>
       <c r="C40" t="n">
-        <v>31.5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
@@ -7953,7 +9332,7 @@
         <v>60</v>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42">
@@ -7966,7 +9345,7 @@
         <v>60</v>
       </c>
       <c r="C42" t="n">
-        <v>30.5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
@@ -7979,7 +9358,7 @@
         <v>60</v>
       </c>
       <c r="C43" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
@@ -7992,7 +9371,7 @@
         <v>60</v>
       </c>
       <c r="C44" t="n">
-        <v>30.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
@@ -8005,7 +9384,7 @@
         <v>60</v>
       </c>
       <c r="C45" t="n">
-        <v>30.6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46">
@@ -8018,7 +9397,7 @@
         <v>40</v>
       </c>
       <c r="C46" t="n">
-        <v>20.6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
@@ -8031,7 +9410,7 @@
         <v>40</v>
       </c>
       <c r="C47" t="n">
-        <v>21.8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
@@ -8044,7 +9423,7 @@
         <v>40</v>
       </c>
       <c r="C48" t="n">
-        <v>23.1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
@@ -8057,7 +9436,7 @@
         <v>40</v>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
@@ -8070,7 +9449,7 @@
         <v>40</v>
       </c>
       <c r="C50" t="n">
-        <v>19.8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
@@ -8083,7 +9462,7 @@
         <v>40</v>
       </c>
       <c r="C51" t="n">
-        <v>23.1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -8096,7 +9475,7 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>22.3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -8109,7 +9488,7 @@
         <v>40</v>
       </c>
       <c r="C53" t="n">
-        <v>22.8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
@@ -8122,7 +9501,7 @@
         <v>40</v>
       </c>
       <c r="C54" t="n">
-        <v>22.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
@@ -8135,7 +9514,7 @@
         <v>40</v>
       </c>
       <c r="C55" t="n">
-        <v>23.7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
@@ -8148,7 +9527,7 @@
         <v>40</v>
       </c>
       <c r="C56" t="n">
-        <v>20.6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
@@ -8161,7 +9540,7 @@
         <v>40</v>
       </c>
       <c r="C57" t="n">
-        <v>22.6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
@@ -8174,7 +9553,7 @@
         <v>40</v>
       </c>
       <c r="C58" t="n">
-        <v>23.2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
@@ -8187,7 +9566,7 @@
         <v>40</v>
       </c>
       <c r="C59" t="n">
-        <v>22.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
@@ -8200,7 +9579,7 @@
         <v>40</v>
       </c>
       <c r="C60" t="n">
-        <v>22.9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
@@ -8213,7 +9592,7 @@
         <v>40</v>
       </c>
       <c r="C61" t="n">
-        <v>22.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
@@ -8226,7 +9605,7 @@
         <v>40</v>
       </c>
       <c r="C62" t="n">
-        <v>23.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63">
@@ -8239,7 +9618,7 @@
         <v>40</v>
       </c>
       <c r="C63" t="n">
-        <v>22.8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64">
@@ -8252,7 +9631,7 @@
         <v>40</v>
       </c>
       <c r="C64" t="n">
-        <v>22.3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65">
@@ -8265,7 +9644,7 @@
         <v>40</v>
       </c>
       <c r="C65" t="n">
-        <v>20.6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
@@ -8278,7 +9657,7 @@
         <v>40</v>
       </c>
       <c r="C66" t="n">
-        <v>22.1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67">
@@ -8291,7 +9670,7 @@
         <v>40</v>
       </c>
       <c r="C67" t="n">
-        <v>23.2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68">
@@ -8304,7 +9683,7 @@
         <v>40</v>
       </c>
       <c r="C68" t="n">
-        <v>23.4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69">
@@ -8317,7 +9696,7 @@
         <v>40</v>
       </c>
       <c r="C69" t="n">
-        <v>21.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70">
@@ -8330,7 +9709,7 @@
         <v>40</v>
       </c>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71">
@@ -8343,7 +9722,7 @@
         <v>40</v>
       </c>
       <c r="C71" t="n">
-        <v>22.2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72">
@@ -8356,7 +9735,7 @@
         <v>40</v>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73">
@@ -8369,7 +9748,7 @@
         <v>40</v>
       </c>
       <c r="C73" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74">
@@ -8382,7 +9761,7 @@
         <v>40</v>
       </c>
       <c r="C74" t="n">
-        <v>22.3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75">
@@ -8408,7 +9787,7 @@
         <v>40</v>
       </c>
       <c r="C76" t="n">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77">
@@ -8421,7 +9800,7 @@
         <v>40</v>
       </c>
       <c r="C77" t="n">
-        <v>24.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78">
@@ -8434,7 +9813,7 @@
         <v>40</v>
       </c>
       <c r="C78" t="n">
-        <v>21.8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79">
@@ -8447,7 +9826,7 @@
         <v>40</v>
       </c>
       <c r="C79" t="n">
-        <v>21.2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
@@ -8460,7 +9839,7 @@
         <v>40</v>
       </c>
       <c r="C80" t="n">
-        <v>24.4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81">
@@ -8473,7 +9852,7 @@
         <v>40</v>
       </c>
       <c r="C81" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82">
@@ -8486,7 +9865,7 @@
         <v>40</v>
       </c>
       <c r="C82" t="n">
-        <v>17.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -8499,7 +9878,7 @@
         <v>40</v>
       </c>
       <c r="C83" t="n">
-        <v>20.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84">
@@ -8512,7 +9891,7 @@
         <v>40</v>
       </c>
       <c r="C84" t="n">
-        <v>21.7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85">
@@ -8525,7 +9904,7 @@
         <v>40</v>
       </c>
       <c r="C85" t="n">
-        <v>22.9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86">
@@ -8538,7 +9917,7 @@
         <v>40</v>
       </c>
       <c r="C86" t="n">
-        <v>23.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87">
@@ -8551,7 +9930,7 @@
         <v>40</v>
       </c>
       <c r="C87" t="n">
-        <v>22.4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88">
@@ -8564,7 +9943,7 @@
         <v>40</v>
       </c>
       <c r="C88" t="n">
-        <v>23.6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89">
@@ -8577,7 +9956,7 @@
         <v>40</v>
       </c>
       <c r="C89" t="n">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90">
@@ -8590,7 +9969,7 @@
         <v>40</v>
       </c>
       <c r="C90" t="n">
-        <v>20.4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91">
@@ -8603,7 +9982,7 @@
         <v>40</v>
       </c>
       <c r="C91" t="n">
-        <v>23.1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92">
@@ -8616,7 +9995,7 @@
         <v>40</v>
       </c>
       <c r="C92" t="n">
-        <v>22.6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93">
@@ -8629,7 +10008,7 @@
         <v>40</v>
       </c>
       <c r="C93" t="n">
-        <v>23.8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94">
@@ -8642,7 +10021,7 @@
         <v>20</v>
       </c>
       <c r="C94" t="n">
-        <v>13.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95">
@@ -8655,7 +10034,7 @@
         <v>20</v>
       </c>
       <c r="C95" t="n">
-        <v>15.9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96">
@@ -8668,7 +10047,7 @@
         <v>20</v>
       </c>
       <c r="C96" t="n">
-        <v>15.3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97">
@@ -8681,7 +10060,7 @@
         <v>20</v>
       </c>
       <c r="C97" t="n">
-        <v>15.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98">
@@ -8694,7 +10073,7 @@
         <v>20</v>
       </c>
       <c r="C98" t="n">
-        <v>15.3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99">
@@ -8707,7 +10086,7 @@
         <v>20</v>
       </c>
       <c r="C99" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100">
@@ -8720,7 +10099,7 @@
         <v>20</v>
       </c>
       <c r="C100" t="n">
-        <v>12.4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
@@ -8733,7 +10112,7 @@
         <v>20</v>
       </c>
       <c r="C101" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102">
@@ -8746,7 +10125,7 @@
         <v>20</v>
       </c>
       <c r="C102" t="n">
-        <v>14.7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103">
@@ -8759,7 +10138,7 @@
         <v>20</v>
       </c>
       <c r="C103" t="n">
-        <v>14.9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104">
@@ -8772,7 +10151,7 @@
         <v>20</v>
       </c>
       <c r="C104" t="n">
-        <v>15.4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105">
@@ -8785,7 +10164,7 @@
         <v>20</v>
       </c>
       <c r="C105" t="n">
-        <v>13.7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106">
@@ -8798,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>7.700000000000001</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107">
@@ -8811,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>7.700000000000001</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108">
@@ -8824,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>5.300000000000001</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -8837,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>6.300000000000001</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110">
@@ -8850,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>6.1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111">
@@ -8863,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8939,7 +10318,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="3">
@@ -8964,7 +10343,7 @@
         <v>-0.021</v>
       </c>
       <c r="G3" t="n">
-        <v>0.053</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="4">
@@ -8989,7 +10368,7 @@
         <v>-0.016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.098</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="5">
@@ -9014,7 +10393,7 @@
         <v>-0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.067</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -9039,7 +10418,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.987</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -9049,19 +10428,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007</v>
+        <v>0.377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.053</v>
+        <v>0.397</v>
       </c>
       <c r="D7" t="n">
-        <v>0.098</v>
+        <v>0.478</v>
       </c>
       <c r="E7" t="n">
-        <v>0.067</v>
+        <v>0.44</v>
       </c>
       <c r="F7" t="n">
-        <v>0.987</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
